--- a/pred_ohlcv/54_21/2019-10-09 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>77485.55294678001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>76171.92244678001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -860,7 +860,7 @@
         <v>73478.17554678001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>74505.29924678001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>72809.11784678001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>66062.45944678001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>66579.81114678</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>66579.81114678</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>49513.52285066999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>50503.94895066999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>50693.94895066999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>50357.58975066999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>47360.22465066999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>47372.72465066999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>46988.53915066999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>45988.53915066999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>46160.79945066999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>46110.89945066999</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>46003.81015066999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>45346.34725066999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>45358.84725066999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>45354.84725066999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>45904.70325066999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>46454.20305067</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>46004.20305067</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>46030.13805066999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>46029.13805066999</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>48868.43085066999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>48852.76065066999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>48737.68595066999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>52178.37275066999</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>51607.08905066999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>58706.40546177998</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>60652.36695066999</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>76031.83865066999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>100899.49257015</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>100848.59157015</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>97889.22907014999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>97889.22907014999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>97881.80907014999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>97877.80907014999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>99515.91847014999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>96389.88777014999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>96407.14247014999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>100578.32247015</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>100627.84047015</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>100575.84047015</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>100576.84047015</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>99645.02437014999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>99586.14257014998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>99589.14257014998</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>99689.14257014998</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>99938.97587014998</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>99838.97587014998</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>97763.52867014999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>96766.52867014999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>96155.55247014998</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>91822.27457014998</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>90603.82817014998</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>91178.82817014998</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>90563.71717014998</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>70308.21188212991</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>70310.55158212991</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>69614.40758212992</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>69562.44638212991</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>69119.44638212991</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>69700.74738212992</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>69226.20988212992</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>69276.08488212992</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>67561.06478212992</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>67970.52188212992</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>67969.52188212992</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>68204.77528212992</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>68204.77528212992</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>68385.58408212992</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>70231.41548212992</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>70231.74828212992</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>72343.57718212993</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>71364.73058212992</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>71364.73058212992</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>71364.73058212992</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>71367.94538212992</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>71366.94538212992</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>69600.58478212992</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>69600.58478212992</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>69609.80478212993</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>69609.80478212993</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>70323.76628212993</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>71302.26858212992</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>71308.24698212993</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>71848.27808212992</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>71318.93528212993</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>71197.26488212992</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>71197.26488212992</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>67948.60808212993</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>67953.03068212993</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>67953.03068212993</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>67953.03068212993</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>67949.03068212993</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>67952.98408212993</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>67884.25098212993</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>67884.25098212993</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>67887.47138212994</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>67886.47138212994</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>67886.47138212994</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>67886.47138212994</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>67889.37748212993</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>67877.88308212993</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>67989.87208212994</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>68515.63268212993</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>68930.20178212992</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>70705.87878212992</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>71787.63818212991</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>71787.63818212991</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>68510.76268212993</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>68500.72138212994</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>68032.05458212993</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>70180.74418212993</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>70180.74418212993</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>70179.74418212993</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>70179.74418212993</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>70179.74418212993</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>70200.19168212992</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>69534.03008212992</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>69540.43048212992</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>68175.62448212992</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>68175.62448212992</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>68195.37518212992</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>68195.37518212992</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>69495.78498212992</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>69304.38498212992</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>69304.38498212992</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>68129.62358212992</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>67913.37828212992</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>67868.28008212993</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>66050.80258212994</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>66004.65348212994</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>66555.72658212994</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>66711.41688212994</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>66605.14188212994</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>66784.36218212995</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>66216.76088212995</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>65901.69618212995</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>64030.80538212995</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>59715.04518212995</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>59607.10218212995</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>60507.10218212995</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>62864.55698212996</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>62975.55698212996</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>62974.55698212996</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>62489.80018212995</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>62490.80018212995</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>62490.80018212995</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>67441.45668212995</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>69400.19888212995</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>70772.87498212994</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>71602.85278212994</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>72532.38738212993</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>74001.46568212993</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>77484.30248212993</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>80217.04138212992</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>80314.94738212992</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-09 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-09 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>77485.55294678001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>76171.92244678001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>75834.51244678001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>72054.67694678</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>72174.36394678001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>72075.15194678001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>71894.47874678001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>71920.98004678001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -860,7 +860,7 @@
         <v>73478.17554678001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>74505.29924678001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>72809.11784678001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>66062.45944678001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>66579.81114678</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>66579.81114678</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>46003.81015066999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>45346.34725066999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>45358.84725066999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>45354.84725066999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>45904.70325066999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>46454.20305067</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>46004.20305067</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>46030.13805066999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>48868.43085066999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>48852.76065066999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>48737.68595066999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>52178.37275066999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>51607.08905066999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>58706.40546177998</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>60652.36695066999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>76031.83865066999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>81368.30784588998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>100949.49257015</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>100899.49257015</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>100848.59157015</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>97889.22907014999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>97889.22907014999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>97881.80907014999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>97877.80907014999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>99515.91847014999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>96389.88777014999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>96405.14247014999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>100578.32247015</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>100627.84047015</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>100575.84047015</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>100576.84047015</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>99645.02437014999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>99586.14257014998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>99589.14257014998</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>99689.14257014998</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>99938.97587014998</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>99838.97587014998</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>97763.52867014999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>96766.52867014999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>91822.27457014998</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>90603.82817014998</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>60507.10218212995</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>59486.87658212996</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>59415.83998212996</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>59415.83998212996</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>62864.55698212996</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>62489.80018212995</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>62490.80018212995</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
